--- a/data/metadata/Informe-05-050306-A-TP.xlsx
+++ b/data/metadata/Informe-05-050306-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>seccion-1-letra-codigo</t>
   </si>
@@ -64,22 +64,25 @@
     <t>iaest-measure:numero-de-contratos</t>
   </si>
   <si>
-    <t>iaest-dimension:seccion-1-letra-descripcion</t>
+    <t>iaest-measure:cnae-ano</t>
+  </si>
+  <si>
+    <t>iaest-measure:seccion-1-letra-descripcion</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-dimension:mes-nombre</t>
+    <t>iaest-measure:mes-nombre</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:clasificacion</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:clasificacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>dim</t>
@@ -101,21 +104,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-cnae-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-seccion-1-letra-descripcion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-mes-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-clasificacion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -230,31 +218,31 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -262,40 +250,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -303,63 +291,48 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050306-A-TP.xlsx
+++ b/data/metadata/Informe-05-050306-A-TP.xlsx
@@ -11,87 +11,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
-  <si>
-    <t>seccion-1-letra-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>cnae-ano</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>seccion-1-letra-descripcion</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>mes-nombre</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>clasificacion</t>
-  </si>
-  <si>
-    <t>sexo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+  <si>
+    <t>Mes (código)</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Sección (1 letra) código</t>
+  </si>
+  <si>
+    <t>Mes nombre</t>
+  </si>
+  <si>
+    <t>Número de contratos</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>CNAE año</t>
+  </si>
+  <si>
+    <t>Sección (1 letra) descripción</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:mes-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:cnae-ano</t>
+  </si>
+  <si>
+    <t>iaest-measure:seccion-1-letra-descripcion</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>iaest-measure:cnae-ano</t>
-  </si>
-  <si>
-    <t>iaest-measure:seccion-1-letra-descripcion</t>
-  </si>
-  <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:mes-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>iaest-measure:clasificacion</t>
   </si>
   <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -100,7 +100,7 @@
     <t>URI-Provincia</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -212,37 +212,37 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -250,40 +250,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -291,47 +291,44 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/data/metadata/Informe-05-050306-A-TP.xlsx
+++ b/data/metadata/Informe-05-050306-A-TP.xlsx
@@ -280,8 +280,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3:M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +409,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +450,7 @@
         <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,7 +491,7 @@
         <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/metadata/Informe-05-050306-A-TP.xlsx
+++ b/data/metadata/Informe-05-050306-A-TP.xlsx
@@ -281,7 +281,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +409,7 @@
         <v>34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +450,7 @@
         <v>35</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,7 +491,7 @@
         <v>38</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
